--- a/sorensenLab/relatedToDlg2/design20211124_dlg2EnhancerCaspex/oligosDesignWorkbook.xlsx
+++ b/sorensenLab/relatedToDlg2/design20211124_dlg2EnhancerCaspex/oligosDesignWorkbook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -50,24 +50,6 @@
     <t>template</t>
   </si>
   <si>
-    <t>pLvxCaspexFwd</t>
-  </si>
-  <si>
-    <t>pLvxCaspexRev</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcggGCCACCATGGACTACAAAGAC</t>
-  </si>
-  <si>
-    <t>cccctacccggtagaattatTCAACCGGTCTTGTACAGCTC</t>
-  </si>
-  <si>
-    <t>caspex vector</t>
-  </si>
-  <si>
-    <t>pLvxEf1aCaspex</t>
-  </si>
-  <si>
     <t>EF1a-F, MSCV-rev</t>
   </si>
   <si>
@@ -95,76 +77,43 @@
     <t>pLvxEf1aTdtomatoEr5</t>
   </si>
   <si>
-    <t>cccctacccggtagaattatTTAGCCCTTGTCGTCATCATC</t>
-  </si>
-  <si>
     <t>any ybx1 vector</t>
   </si>
   <si>
     <t>ybx1 for cdtag fusion</t>
   </si>
   <si>
-    <t>cdtag for ybx1 fusion</t>
-  </si>
-  <si>
-    <t>ybx1CdtagRev</t>
-  </si>
-  <si>
-    <t>ybx1CdtagFwd</t>
-  </si>
-  <si>
-    <t>cdtagYbx1Fwd</t>
-  </si>
-  <si>
-    <t>cdtagYbx1Rev</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcgggccaccATGGACTACAAGGATCATGATG</t>
-  </si>
-  <si>
-    <t>ggttcatcatggagccTTCCAGTTTTAGAAGCTCCAC</t>
-  </si>
-  <si>
-    <t>ggaaggctccATGATGAACCACAGCATGAG</t>
-  </si>
-  <si>
-    <t>cccctacccggtagaattatTTATAACTTTTCCTTTGAGGGAATC</t>
-  </si>
-  <si>
-    <t>dlg2NdtagFwd</t>
-  </si>
-  <si>
-    <t>dlg2NdtagRev</t>
-  </si>
-  <si>
-    <t>ndtagDlg2Fwd</t>
-  </si>
-  <si>
-    <t>ndtagDlg2Rev</t>
-  </si>
-  <si>
-    <t>any dlg2 short vector</t>
-  </si>
-  <si>
-    <t>cdtag-flag puc19</t>
-  </si>
-  <si>
-    <t>ndtag-flag puc19</t>
-  </si>
-  <si>
-    <t>dlg2 for ndtag fusion</t>
-  </si>
-  <si>
-    <t>ndtag for dlg2 fusion</t>
-  </si>
-  <si>
-    <t>tcagatctcgagctcatcggGCCACCATGAGCAGCGAGGC</t>
-  </si>
-  <si>
-    <t>cctgcactccggagccCTCAGCCCCGCCCTGCTCAG</t>
-  </si>
-  <si>
-    <t>tgagggctccGGAGTGCAGGTGGAAACCATC</t>
+    <t>TGTGTGCATTATCCTCTGAAGTTT</t>
+  </si>
+  <si>
+    <t>CGGTGAACTCATATCTGGCAT</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd1</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev1</t>
+  </si>
+  <si>
+    <t>dtagSanger1</t>
+  </si>
+  <si>
+    <t>TGGCATGATTGTGATGCCCT</t>
+  </si>
+  <si>
+    <t>CCCAGGCTAACTATGCCCAG</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd4</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev4</t>
+  </si>
+  <si>
+    <t>gDNA</t>
+  </si>
+  <si>
+    <t>GATCCGAGGCTGGGAAGAAG</t>
   </si>
 </sst>
 </file>
@@ -515,7 +464,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,121 +505,112 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C8" si="0">LEN(B2)</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1616</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <f t="shared" ref="C2:C13" si="0">LEN(B2)</f>
-        <v>41</v>
-      </c>
-      <c r="D2" s="3">
-        <v>67</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5862</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3">
-        <v>1616</v>
+        <v>581</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3">
-        <v>984</v>
+        <v>1500</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,139 +618,34 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D8" s="3">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3">
-        <v>399</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D10" s="3">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3">
-        <v>408</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D12" s="3">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1059</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
